--- a/241204_datos_operaciones_programadas.xlsx
+++ b/241204_datos_operaciones_programadas.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\miguel OneDrive\OneDrive - Universidad Politécnica de Madrid\docencia_24_25\mca_2425\entregas\Entrega 3 - Generacion columnas\datos quirófanos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/marta_edo_alumnos_upm_es/Documents/Q1/GITHUB/entrega-3-gc-grupo-mca-b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{13E388D5-69D9-470B-AE72-C9E8CFF606F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{350FFFB0-85D8-4376-85AA-BDF129D6DE61}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{13E388D5-69D9-470B-AE72-C9E8CFF606F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128DDC6E-AC4E-4884-B821-61A007DCC41C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="operaciones" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operaciones!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operaciones!$A$1:$E$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1190,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1207,6 +1218,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,10 +1506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1521,367 +1541,367 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.479166666664</v>
       </c>
       <c r="E2" s="2">
-        <v>45630.645833333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.517361111109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>45630.809027777781</v>
+        <v>45630.493055555555</v>
       </c>
       <c r="E3" s="2">
-        <v>45630.833333333336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.694444444445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>45630.600694444445</v>
+        <v>45630.493055555555</v>
       </c>
       <c r="E4" s="2">
-        <v>45630.65625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.53125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>45630.677083333336</v>
+        <v>45630.5</v>
       </c>
       <c r="E5" s="2">
-        <v>45630.701388888891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.746527777781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>45630.642361111109</v>
+        <v>45630.503472222219</v>
       </c>
       <c r="E6" s="2">
-        <v>45630.684027777781</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.607638888891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>45630.479166666664</v>
+        <v>45630.506944444445</v>
       </c>
       <c r="E7" s="2">
-        <v>45630.517361111109</v>
+        <v>45630.534722222219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>45630.534722222219</v>
+        <v>45630.508333333331</v>
       </c>
       <c r="E8" s="2">
-        <v>45630.569444444445</v>
+        <v>45630.645833333336</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2">
+        <v>45630.534722222219</v>
+      </c>
+      <c r="E9" s="2">
         <v>45630.569444444445</v>
       </c>
-      <c r="E9" s="2">
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45630.534722222219</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45630.572916666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45630.5625</v>
+      </c>
+      <c r="E11" s="2">
         <v>45630.625</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45630.809027777781</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45630.840277777781</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45630.704861111109</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45630.736111111109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>45630.625</v>
+        <v>45630.565972222219</v>
       </c>
       <c r="E12" s="2">
-        <v>45630.659722222219</v>
+        <v>45630.631944444445</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>45630.618055555555</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E13" s="2">
-        <v>45630.666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>45630.508333333331</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E14" s="2">
-        <v>45630.645833333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.621527777781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>45630.78125</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E15" s="2">
-        <v>45630.819444444445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.631944444445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.569444444445</v>
       </c>
       <c r="E16" s="2">
-        <v>45630.65625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.642361111109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2">
-        <v>45630.503472222219</v>
+        <v>45630.572916666664</v>
       </c>
       <c r="E17" s="2">
-        <v>45630.607638888891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.631944444445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>45630.565972222219</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E18" s="2">
-        <v>45630.631944444445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.621527777781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2">
         <v>45630.576388888891</v>
       </c>
       <c r="E19" s="2">
-        <v>45630.621527777781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.611111111109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2">
-        <v>45630.604166666664</v>
+        <v>45630.576388888891</v>
       </c>
       <c r="E20" s="2">
-        <v>45630.65625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.666666666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2">
-        <v>45630.611111111109</v>
+        <v>45630.586805555555</v>
       </c>
       <c r="E21" s="2">
-        <v>45630.677083333336</v>
+        <v>45630.642361111109</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>45630.506944444445</v>
+        <v>45630.600694444445</v>
       </c>
       <c r="E22" s="2">
-        <v>45630.534722222219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.65625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -1893,228 +1913,228 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>45630.572916666664</v>
+        <v>45630.604166666664</v>
       </c>
       <c r="E24" s="2">
-        <v>45630.631944444445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.65625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45630.604166666664</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45630.652777777781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45630.607638888891</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45630.652777777781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2">
-        <v>45630.680555555555</v>
-      </c>
-      <c r="E25" s="2">
-        <v>45630.982638888891</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45630.760416666664</v>
-      </c>
-      <c r="E26" s="2">
-        <v>45630.819444444445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D27" s="2">
-        <v>45630.534722222219</v>
+        <v>45630.611111111109</v>
       </c>
       <c r="E27" s="2">
-        <v>45630.572916666664</v>
+        <v>45630.677083333336</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>45630.604166666664</v>
-      </c>
-      <c r="E28" s="2">
-        <v>45630.652777777781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10">
+        <v>45630.614583333336</v>
+      </c>
+      <c r="E28" s="10">
+        <v>45630.645833333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>45630.5</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E29" s="2">
-        <v>45630.746527777781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.65625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2">
-        <v>45630.5625</v>
+        <v>45630.614583333336</v>
       </c>
       <c r="E30" s="2">
-        <v>45630.625</v>
+        <v>45630.725694444445</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2">
-        <v>45630.763888888891</v>
+        <v>45630.618055555555</v>
       </c>
       <c r="E31" s="2">
-        <v>45630.795138888891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.666666666664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.621527777781</v>
       </c>
       <c r="E32" s="2">
-        <v>45630.611111111109</v>
+        <v>45630.666666666664</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2">
-        <v>45630.493055555555</v>
+        <v>45630.625</v>
       </c>
       <c r="E33" s="2">
-        <v>45630.694444444445</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.659722222219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2">
-        <v>45630.614583333336</v>
+        <v>45630.625</v>
       </c>
       <c r="E34" s="2">
-        <v>45630.725694444445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.670138888891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2">
-        <v>45630.621527777781</v>
+        <v>45630.625</v>
       </c>
       <c r="E35" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.722222222219</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2">
-        <v>45630.569444444445</v>
-      </c>
-      <c r="E36" s="2">
-        <v>45630.621527777781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10">
+        <v>45630.642361111109</v>
+      </c>
+      <c r="E36" s="10">
+        <v>45630.684027777781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>202</v>
       </c>
@@ -2131,7 +2151,7 @@
         <v>45630.690972222219</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>223</v>
       </c>
@@ -2148,7 +2168,7 @@
         <v>45630.729166666664</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>242</v>
       </c>
@@ -2165,7 +2185,7 @@
         <v>45630.680555555555</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>248</v>
       </c>
@@ -2182,7 +2202,7 @@
         <v>45630.611111111109</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>262</v>
       </c>
@@ -2199,7 +2219,7 @@
         <v>45630.677083333336</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>268</v>
       </c>
@@ -2216,7 +2236,7 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>275</v>
       </c>
@@ -2233,7 +2253,7 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>300</v>
       </c>
@@ -2250,7 +2270,7 @@
         <v>45630.763888888891</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>308</v>
       </c>
@@ -2267,7 +2287,7 @@
         <v>45630.5625</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>327</v>
       </c>
@@ -2284,7 +2304,7 @@
         <v>45630.746527777781</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>332</v>
       </c>
@@ -2301,7 +2321,7 @@
         <v>45630.614583333336</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>353</v>
       </c>
@@ -2318,194 +2338,194 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2">
-        <v>45630.725694444445</v>
+        <v>45630.649305555555</v>
       </c>
       <c r="E49" s="2">
-        <v>45630.763888888891</v>
+        <v>45630.71875</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="2">
-        <v>45630.625</v>
-      </c>
-      <c r="E50" s="2">
-        <v>45630.670138888891</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10">
+        <v>45630.677083333336</v>
+      </c>
+      <c r="E50" s="10">
+        <v>45630.701388888891</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D51" s="2">
-        <v>45630.576388888891</v>
+        <v>45630.680555555555</v>
       </c>
       <c r="E51" s="2">
-        <v>45630.666666666664</v>
+        <v>45630.982638888891</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2">
-        <v>45630.75</v>
+        <v>45630.704861111109</v>
       </c>
       <c r="E52" s="2">
-        <v>45630.8125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.736111111109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="2">
-        <v>45630.649305555555</v>
+        <v>45630.725694444445</v>
       </c>
       <c r="E53" s="2">
-        <v>45630.71875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.763888888891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="2">
-        <v>45630.607638888891</v>
+        <v>45630.75</v>
       </c>
       <c r="E54" s="2">
-        <v>45630.652777777781</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.8125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D55" s="2">
-        <v>45630.625</v>
+        <v>45630.760416666664</v>
       </c>
       <c r="E55" s="2">
-        <v>45630.722222222219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.819444444445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D56" s="2">
-        <v>45630.569444444445</v>
+        <v>45630.763888888891</v>
       </c>
       <c r="E56" s="2">
-        <v>45630.631944444445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.795138888891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D57" s="2">
-        <v>45630.493055555555</v>
+        <v>45630.78125</v>
       </c>
       <c r="E57" s="2">
-        <v>45630.53125</v>
+        <v>45630.819444444445</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D58" s="2">
-        <v>45630.586805555555</v>
+        <v>45630.809027777781</v>
       </c>
       <c r="E58" s="2">
-        <v>45630.642361111109</v>
+        <v>45630.833333333336</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D59" s="2">
-        <v>45630.569444444445</v>
+        <v>45630.809027777781</v>
       </c>
       <c r="E59" s="2">
-        <v>45630.642361111109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45630.840277777781</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>195</v>
       </c>
@@ -2522,7 +2542,7 @@
         <v>45630.600694444445</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>229</v>
       </c>
@@ -2539,7 +2559,7 @@
         <v>45630.663194444445</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>246</v>
       </c>
@@ -2556,7 +2576,7 @@
         <v>45630.673611111109</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>251</v>
       </c>
@@ -2573,7 +2593,7 @@
         <v>45630.552083333336</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>252</v>
       </c>
@@ -2590,7 +2610,7 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>258</v>
       </c>
@@ -2607,7 +2627,7 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>261</v>
       </c>
@@ -2624,7 +2644,7 @@
         <v>45630.517361111109</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>335</v>
       </c>
@@ -2641,7 +2661,7 @@
         <v>45630.885416666664</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>355</v>
       </c>
@@ -2658,7 +2678,7 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>200</v>
       </c>
@@ -2675,7 +2695,7 @@
         <v>45630.826388888891</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>208</v>
       </c>
@@ -2692,7 +2712,7 @@
         <v>45630.673611111109</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>227</v>
       </c>
@@ -2709,7 +2729,7 @@
         <v>45630.774305555555</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>263</v>
       </c>
@@ -2726,7 +2746,7 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>299</v>
       </c>
@@ -2743,7 +2763,7 @@
         <v>45630.881944444445</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>314</v>
       </c>
@@ -2760,7 +2780,7 @@
         <v>45630.534722222219</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>330</v>
       </c>
@@ -2777,7 +2797,7 @@
         <v>45630.631944444445</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>345</v>
       </c>
@@ -2794,7 +2814,7 @@
         <v>45630.524305555555</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>361</v>
       </c>
@@ -2811,7 +2831,7 @@
         <v>45630.708333333336</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>362</v>
       </c>
@@ -2828,7 +2848,7 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>363</v>
       </c>
@@ -2845,7 +2865,7 @@
         <v>45630.861111111109</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>204</v>
       </c>
@@ -2862,7 +2882,7 @@
         <v>45630.642361111109</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>213</v>
       </c>
@@ -2879,7 +2899,7 @@
         <v>45630.517361111109</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>231</v>
       </c>
@@ -2896,7 +2916,7 @@
         <v>45630.684027777781</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>260</v>
       </c>
@@ -2913,7 +2933,7 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>266</v>
       </c>
@@ -2930,7 +2950,7 @@
         <v>45630.694444444445</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>286</v>
       </c>
@@ -2947,7 +2967,7 @@
         <v>45630.635416666664</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>304</v>
       </c>
@@ -2964,7 +2984,7 @@
         <v>45630.569444444445</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>331</v>
       </c>
@@ -2981,7 +3001,7 @@
         <v>45630.989583333336</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>349</v>
       </c>
@@ -2998,7 +3018,7 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>364</v>
       </c>
@@ -3015,7 +3035,7 @@
         <v>45630.71875</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>198</v>
       </c>
@@ -3032,7 +3052,7 @@
         <v>45630.600694444445</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>203</v>
       </c>
@@ -3049,7 +3069,7 @@
         <v>45630.635416666664</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>205</v>
       </c>
@@ -3066,7 +3086,7 @@
         <v>45630.690972222219</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>215</v>
       </c>
@@ -3083,7 +3103,7 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>217</v>
       </c>
@@ -3100,7 +3120,7 @@
         <v>45630.677083333336</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>220</v>
       </c>
@@ -3117,7 +3137,7 @@
         <v>45630.909722222219</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>240</v>
       </c>
@@ -3134,7 +3154,7 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>270</v>
       </c>
@@ -3151,7 +3171,7 @@
         <v>45630.864583333336</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>309</v>
       </c>
@@ -3168,7 +3188,7 @@
         <v>45630.965277777781</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>358</v>
       </c>
@@ -3185,7 +3205,7 @@
         <v>45630.829861111109</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>191</v>
       </c>
@@ -3202,7 +3222,7 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>291</v>
       </c>
@@ -3219,7 +3239,7 @@
         <v>45630.503472222219</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>310</v>
       </c>
@@ -3236,7 +3256,7 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>317</v>
       </c>
@@ -3253,7 +3273,7 @@
         <v>45630.850694444445</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>321</v>
       </c>
@@ -3270,7 +3290,7 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>340</v>
       </c>
@@ -3287,7 +3307,7 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>341</v>
       </c>
@@ -3304,7 +3324,7 @@
         <v>45630.663194444445</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>351</v>
       </c>
@@ -3321,7 +3341,7 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>359</v>
       </c>
@@ -3338,7 +3358,7 @@
         <v>45630.697916666664</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>221</v>
       </c>
@@ -3355,7 +3375,7 @@
         <v>45630.635416666664</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>230</v>
       </c>
@@ -3372,7 +3392,7 @@
         <v>45630.673611111109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>269</v>
       </c>
@@ -3389,7 +3409,7 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>273</v>
       </c>
@@ -3406,7 +3426,7 @@
         <v>45630.736111111109</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>279</v>
       </c>
@@ -3423,7 +3443,7 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>296</v>
       </c>
@@ -3440,7 +3460,7 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>322</v>
       </c>
@@ -3457,7 +3477,7 @@
         <v>45630.642361111109</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>323</v>
       </c>
@@ -3474,7 +3494,7 @@
         <v>45630.711805555555</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>348</v>
       </c>
@@ -3491,7 +3511,7 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>206</v>
       </c>
@@ -3508,7 +3528,7 @@
         <v>45630.982638888891</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>228</v>
       </c>
@@ -3525,7 +3545,7 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>237</v>
       </c>
@@ -3542,7 +3562,7 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>244</v>
       </c>
@@ -3559,7 +3579,7 @@
         <v>45630.881944444445</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>250</v>
       </c>
@@ -3576,7 +3596,7 @@
         <v>45630.600694444445</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>255</v>
       </c>
@@ -3593,7 +3613,7 @@
         <v>45630.708333333336</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>272</v>
       </c>
@@ -3610,7 +3630,7 @@
         <v>45630.725694444445</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>288</v>
       </c>
@@ -3627,7 +3647,7 @@
         <v>45630.895833333336</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>301</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>45630.982638888891</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>337</v>
       </c>
@@ -3661,7 +3681,7 @@
         <v>45630.6875</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>344</v>
       </c>
@@ -3678,7 +3698,7 @@
         <v>45630.767361111109</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>219</v>
       </c>
@@ -3695,7 +3715,7 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>218</v>
       </c>
@@ -3712,7 +3732,7 @@
         <v>45630.784722222219</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>259</v>
       </c>
@@ -3729,7 +3749,7 @@
         <v>45630.673611111109</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>265</v>
       </c>
@@ -3746,7 +3766,7 @@
         <v>45630.690972222219</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>284</v>
       </c>
@@ -3763,7 +3783,7 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>285</v>
       </c>
@@ -3780,7 +3800,7 @@
         <v>45630.638888888891</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>287</v>
       </c>
@@ -3797,7 +3817,7 @@
         <v>45630.909722222219</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>294</v>
       </c>
@@ -3814,7 +3834,7 @@
         <v>45630.715277777781</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>293</v>
       </c>
@@ -3831,7 +3851,7 @@
         <v>45630.614583333336</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>297</v>
       </c>
@@ -3848,7 +3868,7 @@
         <v>45630.548611111109</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>325</v>
       </c>
@@ -3865,7 +3885,7 @@
         <v>45630.538194444445</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>207</v>
       </c>
@@ -3882,7 +3902,7 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>243</v>
       </c>
@@ -3899,7 +3919,7 @@
         <v>45630.677083333336</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>311</v>
       </c>
@@ -3916,7 +3936,7 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>315</v>
       </c>
@@ -3933,7 +3953,7 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>336</v>
       </c>
@@ -3950,7 +3970,7 @@
         <v>45630.621527777781</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>339</v>
       </c>
@@ -3967,7 +3987,7 @@
         <v>45630.815972222219</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>357</v>
       </c>
@@ -3984,7 +4004,7 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>360</v>
       </c>
@@ -4001,7 +4021,7 @@
         <v>45630.652777777781</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>192</v>
       </c>
@@ -4018,7 +4038,7 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>212</v>
       </c>
@@ -4035,7 +4055,7 @@
         <v>45630.583333333336</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>232</v>
       </c>
@@ -4052,7 +4072,7 @@
         <v>45630.763888888891</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>271</v>
       </c>
@@ -4069,7 +4089,7 @@
         <v>45630.732638888891</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>276</v>
       </c>
@@ -4086,7 +4106,7 @@
         <v>45630.996527777781</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>277</v>
       </c>
@@ -4103,7 +4123,7 @@
         <v>45630.413194444445</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>290</v>
       </c>
@@ -4120,7 +4140,7 @@
         <v>45630.5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>302</v>
       </c>
@@ -4137,7 +4157,7 @@
         <v>45630.75</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>303</v>
       </c>
@@ -4154,7 +4174,7 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>329</v>
       </c>
@@ -4171,7 +4191,7 @@
         <v>45630.826388888891</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>190</v>
       </c>
@@ -4188,7 +4208,7 @@
         <v>45630.708333333336</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>239</v>
       </c>
@@ -4205,7 +4225,7 @@
         <v>45630.65625</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>254</v>
       </c>
@@ -4222,7 +4242,7 @@
         <v>45630.999305555553</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>256</v>
       </c>
@@ -4239,7 +4259,7 @@
         <v>45630.694444444445</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>289</v>
       </c>
@@ -4256,7 +4276,7 @@
         <v>45630.659722222219</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>307</v>
       </c>
@@ -4273,7 +4293,7 @@
         <v>45630.572916666664</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>343</v>
       </c>
@@ -4290,7 +4310,7 @@
         <v>45630.541666666664</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>356</v>
       </c>
@@ -4307,7 +4327,7 @@
         <v>45630.767361111109</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>196</v>
       </c>
@@ -4324,7 +4344,7 @@
         <v>45630.791666666664</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>224</v>
       </c>
@@ -4341,7 +4361,7 @@
         <v>45630.899305555555</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>225</v>
       </c>
@@ -4358,7 +4378,7 @@
         <v>45630.628472222219</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>226</v>
       </c>
@@ -4375,7 +4395,7 @@
         <v>45630.666666666664</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>234</v>
       </c>
@@ -4392,7 +4412,7 @@
         <v>45630.840277777781</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>278</v>
       </c>
@@ -4409,7 +4429,7 @@
         <v>45630.506944444445</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>283</v>
       </c>
@@ -4426,7 +4446,7 @@
         <v>45630.625</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>295</v>
       </c>
@@ -4443,7 +4463,7 @@
         <v>45630.6875</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>298</v>
       </c>
@@ -4460,7 +4480,7 @@
         <v>45630.715277777781</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>326</v>
       </c>
@@ -4477,7 +4497,7 @@
         <v>45630.854166666664</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>338</v>
       </c>
@@ -4495,9 +4515,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{0BE32B94-EC1A-4E75-B65F-7520E95FEB00}">
-    <sortState ref="A2:E176">
-      <sortCondition ref="C1"/>
+  <autoFilter ref="A1:E176" xr:uid="{0BE32B94-EC1A-4E75-B65F-7520E95FEB00}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Cardiología Pediátrica"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E59">
+      <sortCondition ref="D1:D176"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4505,12 +4530,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f6ad4708-cd8a-45fe-98bf-2842077436f6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4767,17 +4791,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f6ad4708-cd8a-45fe-98bf-2842077436f6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85901CD3-2790-4B17-B6D1-4F06F7324B82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9EF320-48C0-4DDD-B8CB-871D0E6B4C67}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="55a32cf4-c6f7-4b7e-b4ea-547c22e252f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6ad4708-cd8a-45fe-98bf-2842077436f6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4802,18 +4836,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9EF320-48C0-4DDD-B8CB-871D0E6B4C67}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85901CD3-2790-4B17-B6D1-4F06F7324B82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="55a32cf4-c6f7-4b7e-b4ea-547c22e252f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6ad4708-cd8a-45fe-98bf-2842077436f6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>